--- a/stocks with auto price update.xlsx
+++ b/stocks with auto price update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erinh\Desktop\Data Analysis\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC07012-37E2-4019-BA32-1BAEE507CB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A7372-487F-473B-A455-A282F08900FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39C272BF-BFD6-4326-949D-BB30DA2EA6E7}"/>
   </bookViews>
